--- a/excel/vgl5sp.xlsx
+++ b/excel/vgl5sp.xlsx
@@ -440,252 +440,252 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2945.84349038072</v>
+        <v>1547.040898034679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.346530419707436</v>
+        <v>20.34248107011692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.643776412007458</v>
+        <v>8.543584862035459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>634.3536927131554</v>
+        <v>567.8673879196926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51.94191202337263</v>
+        <v>75.62342589987365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.81730100450167</v>
+        <v>12.30973225628813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.69662205527189</v>
+        <v>18.70889253942793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.42881856268954</v>
+        <v>22.28161926963961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1506.870540371455</v>
+        <v>1475.341319737683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69.76287469526567</v>
+        <v>93.93836613844138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>60.89929130700862</v>
+        <v>100.1173297420963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26.09388582876948</v>
+        <v>20.14130480094187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26.84704970135284</v>
+        <v>32.73260283581309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.621332068476825</v>
+        <v>9.983739417896842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24.15267788003299</v>
+        <v>29.26227940320241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>226.6454146284308</v>
+        <v>213.3108823721059</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-87.94124423914212</v>
+        <v>793.1465136654573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.27175088553254</v>
+        <v>15.66035986602478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16.84700929245285</v>
+        <v>15.76739283061899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81.02471760510751</v>
+        <v>46.54060406276833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68.21069612008125</v>
+        <v>47.0521180024768</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.71559757890144</v>
+        <v>16.5191862536853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.70042336953605</v>
+        <v>34.69113689478517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.38109491820668</v>
+        <v>29.74056853309692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>190.0931281502403</v>
+        <v>862.3696948762226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.442894947883194</v>
+        <v>21.08945852179861</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.58335052801715</v>
+        <v>13.47557825713989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30.87673233594511</v>
+        <v>34.31269702883817</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>65.22381486649346</v>
+        <v>82.36534155603724</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1759.939631457149</v>
+        <v>1177.657046113326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13.397407631634</v>
+        <v>20.39825458263055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>382.2279236728542</v>
+        <v>796.4975333202628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29.86976291831627</v>
+        <v>47.28653601716374</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-255.1387394373208</v>
+        <v>834.1042355342233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.51790611129154</v>
+        <v>16.89434585256087</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.01299608462686</v>
+        <v>11.91364503310749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.797166010694363</v>
+        <v>10.45354661784364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12.7640653039028</v>
+        <v>11.951334517397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.67515194457689</v>
+        <v>12.22615435867897</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.73083670363899</v>
+        <v>43.62659759338761</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>157.3982964832551</v>
+        <v>145.24887767643</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>39.17615441729623</v>
+        <v>53.84090864161011</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.28963398268635</v>
+        <v>12.11798681085974</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.875202612400399</v>
+        <v>13.27070160391879</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17.09104519253784</v>
+        <v>22.91555510675932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.564851019966241</v>
+        <v>17.8742316306731</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.29095008889617</v>
+        <v>23.61945091545005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.97512544904959</v>
+        <v>33.81198836157979</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16.85584554027605</v>
+        <v>18.46555591654603</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15.19946907696466</v>
+        <v>17.37128811220018</v>
       </c>
     </row>
   </sheetData>
